--- a/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
+++ b/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Help" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Easy Selector Jump Start'!$A$1:$H$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Easy Selector Jump Start'!$A$1:$H$278</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="407">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1231,6 +1231,15 @@
   </si>
   <si>
     <t>D01A</t>
+  </si>
+  <si>
+    <t>Indoor 1Ph3W Main Breaker</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Indoor 1Ph3W Main Lugs</t>
   </si>
 </sst>
 </file>
@@ -1976,10 +1985,10 @@
   <dimension ref="A1:I278"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D279" sqref="D279"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2029,10 +2038,10 @@
         <v>147</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>36</v>
@@ -2055,10 +2064,10 @@
         <v>147</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
@@ -2081,10 +2090,10 @@
         <v>148</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>36</v>
@@ -2107,10 +2116,10 @@
         <v>148</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>36</v>
@@ -2133,10 +2142,10 @@
         <v>149</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
@@ -2159,10 +2168,10 @@
         <v>149</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
@@ -2185,10 +2194,10 @@
         <v>149</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>36</v>
@@ -2211,10 +2220,10 @@
         <v>149</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>36</v>
@@ -2237,10 +2246,10 @@
         <v>150</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -2263,10 +2272,10 @@
         <v>149</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>46</v>
@@ -2289,10 +2298,10 @@
         <v>149</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>46</v>
@@ -2315,10 +2324,10 @@
         <v>150</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>46</v>
@@ -2341,10 +2350,10 @@
         <v>150</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>70</v>
@@ -2367,10 +2376,10 @@
         <v>150</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>70</v>
@@ -2393,10 +2402,10 @@
         <v>149</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>70</v>
@@ -2419,10 +2428,10 @@
         <v>149</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>70</v>
@@ -2445,10 +2454,10 @@
         <v>150</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>70</v>
@@ -2471,10 +2480,10 @@
         <v>150</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>70</v>
@@ -2497,10 +2506,10 @@
         <v>150</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>70</v>
@@ -2523,10 +2532,10 @@
         <v>150</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>70</v>
@@ -2549,10 +2558,10 @@
         <v>151</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>72</v>
@@ -2575,10 +2584,10 @@
         <v>151</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>72</v>
@@ -2601,10 +2610,10 @@
         <v>149</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>72</v>
@@ -2627,10 +2636,10 @@
         <v>149</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>72</v>
@@ -2653,10 +2662,10 @@
         <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>72</v>
@@ -2679,10 +2688,10 @@
         <v>150</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>72</v>
@@ -2705,10 +2714,10 @@
         <v>151</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>72</v>
@@ -2731,10 +2740,10 @@
         <v>151</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>72</v>
@@ -2757,10 +2766,10 @@
         <v>151</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>72</v>
@@ -2783,10 +2792,10 @@
         <v>151</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>72</v>
@@ -2809,10 +2818,10 @@
         <v>151</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>72</v>
@@ -2835,10 +2844,10 @@
         <v>151</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>72</v>
@@ -2861,10 +2870,10 @@
         <v>151</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>72</v>
@@ -2887,10 +2896,10 @@
         <v>151</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>72</v>
@@ -2913,10 +2922,10 @@
         <v>151</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>72</v>
@@ -2939,10 +2948,10 @@
         <v>151</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>72</v>
@@ -2965,10 +2974,10 @@
         <v>151</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>96</v>
@@ -2991,10 +3000,10 @@
         <v>151</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>96</v>
@@ -3017,10 +3026,10 @@
         <v>151</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>96</v>
@@ -3043,10 +3052,10 @@
         <v>151</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>96</v>
@@ -3069,10 +3078,10 @@
         <v>153</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>36</v>
@@ -3095,10 +3104,10 @@
         <v>153</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>36</v>
@@ -3121,10 +3130,10 @@
         <v>153</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>36</v>
@@ -3147,10 +3156,10 @@
         <v>153</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>36</v>
@@ -3173,10 +3182,10 @@
         <v>153</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>36</v>
@@ -3199,10 +3208,10 @@
         <v>153</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>36</v>
@@ -3225,10 +3234,10 @@
         <v>146</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>46</v>
@@ -3251,10 +3260,10 @@
         <v>146</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>46</v>
@@ -3277,10 +3286,10 @@
         <v>146</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>46</v>
@@ -3303,10 +3312,10 @@
         <v>146</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>46</v>
@@ -3329,10 +3338,10 @@
         <v>146</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>46</v>
@@ -3355,10 +3364,10 @@
         <v>146</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>46</v>
@@ -3381,10 +3390,10 @@
         <v>146</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>46</v>
@@ -3407,10 +3416,10 @@
         <v>146</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>46</v>
@@ -3433,10 +3442,10 @@
         <v>146</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>46</v>
@@ -3459,10 +3468,10 @@
         <v>146</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>46</v>
@@ -3485,10 +3494,10 @@
         <v>146</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>46</v>
@@ -3511,10 +3520,10 @@
         <v>146</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>46</v>
@@ -3537,10 +3546,10 @@
         <v>146</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>46</v>
@@ -3563,10 +3572,10 @@
         <v>146</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>46</v>
@@ -3589,10 +3598,10 @@
         <v>146</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>46</v>
@@ -3615,10 +3624,10 @@
         <v>146</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>70</v>
@@ -3641,10 +3650,10 @@
         <v>146</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>70</v>
@@ -3667,10 +3676,10 @@
         <v>146</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>70</v>
@@ -3693,10 +3702,10 @@
         <v>146</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>70</v>
@@ -3719,10 +3728,10 @@
         <v>146</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>70</v>
@@ -3745,10 +3754,10 @@
         <v>146</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>70</v>
@@ -3771,10 +3780,10 @@
         <v>146</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>72</v>
@@ -3797,10 +3806,10 @@
         <v>146</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>72</v>
@@ -3823,10 +3832,10 @@
         <v>146</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>72</v>
@@ -3849,10 +3858,10 @@
         <v>146</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>72</v>
@@ -3875,10 +3884,10 @@
         <v>146</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>72</v>
@@ -3901,10 +3910,10 @@
         <v>146</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>72</v>
@@ -3927,10 +3936,10 @@
         <v>146</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>72</v>
@@ -3953,10 +3962,10 @@
         <v>146</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>72</v>
@@ -3979,10 +3988,10 @@
         <v>146</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>72</v>
@@ -4005,10 +4014,10 @@
         <v>146</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>72</v>
@@ -4031,10 +4040,10 @@
         <v>146</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>72</v>
@@ -4057,10 +4066,10 @@
         <v>146</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>72</v>
@@ -4083,10 +4092,10 @@
         <v>146</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>96</v>
@@ -4109,10 +4118,10 @@
         <v>146</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>96</v>
@@ -4135,10 +4144,10 @@
         <v>152</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>26</v>
@@ -4161,10 +4170,10 @@
         <v>154</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>31</v>
@@ -4187,10 +4196,10 @@
         <v>154</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>31</v>
@@ -4214,10 +4223,10 @@
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="8" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="F86" s="16" t="s">
         <v>26</v>
@@ -9027,7 +9036,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H86">
+  <autoFilter ref="A1:H278">
     <filterColumn colId="4"/>
   </autoFilter>
   <sortState ref="A2:I91">

--- a/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
+++ b/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23130" windowHeight="4275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23130" windowHeight="4275"/>
   </bookViews>
   <sheets>
     <sheet name="Easy Selector Jump Start" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="408">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1240,6 +1240,9 @@
   </si>
   <si>
     <t>Indoor 1Ph3W Main Lugs</t>
+  </si>
+  <si>
+    <t>Product Subset</t>
   </si>
 </sst>
 </file>
@@ -1984,11 +1987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2012,7 +2015,7 @@
         <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>143</v>
@@ -9054,7 +9057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
+++ b/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23130" windowHeight="4275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-12" windowWidth="23136" windowHeight="4272"/>
   </bookViews>
   <sheets>
     <sheet name="Easy Selector Jump Start" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="408">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1240,6 +1240,9 @@
   </si>
   <si>
     <t>Indoor 1Ph3W Main Lugs</t>
+  </si>
+  <si>
+    <t>Product Subset</t>
   </si>
 </sst>
 </file>
@@ -1984,21 +1987,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2012,7 +2015,7 @@
         <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>143</v>
@@ -9054,16 +9057,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="6" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="4" max="6" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -9411,13 +9414,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:2" ht="15.75" thickBot="1">
+    <row r="1" spans="2:2" ht="15" thickBot="1"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>

--- a/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
+++ b/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23130" windowHeight="4275"/>
+    <workbookView xWindow="0" yWindow="-12" windowWidth="23136" windowHeight="4272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Easy Selector Jump Start" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="440">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1233,16 +1233,112 @@
     <t>D01A</t>
   </si>
   <si>
-    <t>Indoor 1Ph3W Main Breaker</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Indoor 1Ph3W Main Lugs</t>
-  </si>
-  <si>
     <t>Product Subset</t>
+  </si>
+  <si>
+    <t>HOM24L70RB</t>
+  </si>
+  <si>
+    <t>HOM612L100RB</t>
+  </si>
+  <si>
+    <t>HOM48L125GRB</t>
+  </si>
+  <si>
+    <t>HOM816L125PRB</t>
+  </si>
+  <si>
+    <t>HOM1224L125PRB</t>
+  </si>
+  <si>
+    <t>HOM2040L125PRB</t>
+  </si>
+  <si>
+    <t>HOM2448L125PRB</t>
+  </si>
+  <si>
+    <t>HOM12L225PRB</t>
+  </si>
+  <si>
+    <t>HOM1632L225PRB</t>
+  </si>
+  <si>
+    <t>HOM2040L225PRB</t>
+  </si>
+  <si>
+    <t>HOM3060L225PRB</t>
+  </si>
+  <si>
+    <t>HOM4080L225PRB</t>
+  </si>
+  <si>
+    <t>HOM4284L225PRB</t>
+  </si>
+  <si>
+    <t>HOM816M100PRB</t>
+  </si>
+  <si>
+    <t>HOM1224M100PRB</t>
+  </si>
+  <si>
+    <t>HOM2040M100PRB</t>
+  </si>
+  <si>
+    <t>HOM816M125PRB</t>
+  </si>
+  <si>
+    <t>HOM2448M125PRB</t>
+  </si>
+  <si>
+    <t>HOM3060M150PRB</t>
+  </si>
+  <si>
+    <t>HOM12M200PRB</t>
+  </si>
+  <si>
+    <t>HOM2040M200PRB</t>
+  </si>
+  <si>
+    <t>HOM3060M200PRB</t>
+  </si>
+  <si>
+    <t>HOM4080M200PRB</t>
+  </si>
+  <si>
+    <t>HOM816M150PFTRB</t>
+  </si>
+  <si>
+    <t>HOM816M200PFTRB</t>
+  </si>
+  <si>
+    <t>_17701005</t>
+  </si>
+  <si>
+    <t>QO® Circuit Breaker Load Centers from Square D® are Underwriters Laboratories (UL) Listed panelboards. They are designed to meet residential, commercial, and industrial requirements to protect electrical systems, equipment, and people.</t>
+  </si>
+  <si>
+    <t>_17701015</t>
+  </si>
+  <si>
+    <t>_17701011</t>
+  </si>
+  <si>
+    <t>_17701010</t>
+  </si>
+  <si>
+    <t>_17701009</t>
+  </si>
+  <si>
+    <t>_17701007</t>
+  </si>
+  <si>
+    <t>_17701027</t>
+  </si>
+  <si>
+    <t>_17701008</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1501,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1424,6 +1516,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1985,23 +2080,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I278"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2015,7 +2110,7 @@
         <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>143</v>
@@ -2041,10 +2136,10 @@
         <v>147</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>36</v>
@@ -2055,7 +2150,7 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2067,10 +2162,10 @@
         <v>147</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
@@ -2081,7 +2176,7 @@
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2093,10 +2188,10 @@
         <v>148</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>36</v>
@@ -2107,7 +2202,7 @@
       <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2119,10 +2214,10 @@
         <v>148</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>36</v>
@@ -2133,7 +2228,7 @@
       <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2145,10 +2240,10 @@
         <v>149</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
@@ -2159,7 +2254,7 @@
       <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2171,10 +2266,10 @@
         <v>149</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
@@ -2185,7 +2280,7 @@
       <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2197,10 +2292,10 @@
         <v>149</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>36</v>
@@ -2211,7 +2306,7 @@
       <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2223,10 +2318,10 @@
         <v>149</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>36</v>
@@ -2237,7 +2332,7 @@
       <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2249,10 +2344,10 @@
         <v>150</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -2263,7 +2358,7 @@
       <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2275,10 +2370,10 @@
         <v>149</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>46</v>
@@ -2289,7 +2384,7 @@
       <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2301,10 +2396,10 @@
         <v>149</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>46</v>
@@ -2315,7 +2410,7 @@
       <c r="H12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2327,10 +2422,10 @@
         <v>150</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>46</v>
@@ -2341,7 +2436,7 @@
       <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2353,10 +2448,10 @@
         <v>150</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>70</v>
@@ -2367,7 +2462,7 @@
       <c r="H14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2379,10 +2474,10 @@
         <v>150</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>70</v>
@@ -2393,7 +2488,7 @@
       <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2405,10 +2500,10 @@
         <v>149</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>70</v>
@@ -2419,7 +2514,7 @@
       <c r="H16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2431,10 +2526,10 @@
         <v>149</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>70</v>
@@ -2445,7 +2540,7 @@
       <c r="H17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2457,10 +2552,10 @@
         <v>150</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>70</v>
@@ -2471,7 +2566,7 @@
       <c r="H18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2483,10 +2578,10 @@
         <v>150</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>70</v>
@@ -2497,7 +2592,7 @@
       <c r="H19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2509,10 +2604,10 @@
         <v>150</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>70</v>
@@ -2523,7 +2618,7 @@
       <c r="H20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2535,10 +2630,10 @@
         <v>150</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>70</v>
@@ -2549,7 +2644,7 @@
       <c r="H21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2561,10 +2656,10 @@
         <v>151</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>72</v>
@@ -2575,7 +2670,7 @@
       <c r="H22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2587,10 +2682,10 @@
         <v>151</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>72</v>
@@ -2601,7 +2696,7 @@
       <c r="H23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2613,10 +2708,10 @@
         <v>149</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>72</v>
@@ -2627,7 +2722,7 @@
       <c r="H24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2639,10 +2734,10 @@
         <v>149</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>72</v>
@@ -2653,7 +2748,7 @@
       <c r="H25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2665,10 +2760,10 @@
         <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>72</v>
@@ -2679,7 +2774,7 @@
       <c r="H26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2691,10 +2786,10 @@
         <v>150</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>72</v>
@@ -2705,7 +2800,7 @@
       <c r="H27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2717,10 +2812,10 @@
         <v>151</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>72</v>
@@ -2731,7 +2826,7 @@
       <c r="H28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2743,10 +2838,10 @@
         <v>151</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>72</v>
@@ -2757,7 +2852,7 @@
       <c r="H29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2769,10 +2864,10 @@
         <v>151</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>72</v>
@@ -2783,7 +2878,7 @@
       <c r="H30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2795,10 +2890,10 @@
         <v>151</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>72</v>
@@ -2809,7 +2904,7 @@
       <c r="H31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2821,10 +2916,10 @@
         <v>151</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>72</v>
@@ -2835,7 +2930,7 @@
       <c r="H32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2847,10 +2942,10 @@
         <v>151</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>72</v>
@@ -2861,7 +2956,7 @@
       <c r="H33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2873,10 +2968,10 @@
         <v>151</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>72</v>
@@ -2887,7 +2982,7 @@
       <c r="H34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2899,10 +2994,10 @@
         <v>151</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>72</v>
@@ -2913,7 +3008,7 @@
       <c r="H35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2925,10 +3020,10 @@
         <v>151</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>72</v>
@@ -2939,7 +3034,7 @@
       <c r="H36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2951,10 +3046,10 @@
         <v>151</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>72</v>
@@ -2965,7 +3060,7 @@
       <c r="H37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2977,10 +3072,10 @@
         <v>151</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>96</v>
@@ -2991,7 +3086,7 @@
       <c r="H38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3003,10 +3098,10 @@
         <v>151</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>96</v>
@@ -3017,7 +3112,7 @@
       <c r="H39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3029,10 +3124,10 @@
         <v>151</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>96</v>
@@ -3043,7 +3138,7 @@
       <c r="H40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3055,10 +3150,10 @@
         <v>151</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>96</v>
@@ -3069,7 +3164,7 @@
       <c r="H41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3081,10 +3176,10 @@
         <v>153</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>36</v>
@@ -3095,7 +3190,7 @@
       <c r="H42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3107,10 +3202,10 @@
         <v>153</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>36</v>
@@ -3121,7 +3216,7 @@
       <c r="H43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="I43" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3133,10 +3228,10 @@
         <v>153</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>36</v>
@@ -3147,7 +3242,7 @@
       <c r="H44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3159,10 +3254,10 @@
         <v>153</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>36</v>
@@ -3173,7 +3268,7 @@
       <c r="H45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3185,10 +3280,10 @@
         <v>153</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>36</v>
@@ -3199,7 +3294,7 @@
       <c r="H46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3211,10 +3306,10 @@
         <v>153</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>36</v>
@@ -3225,7 +3320,7 @@
       <c r="H47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3237,10 +3332,10 @@
         <v>146</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>46</v>
@@ -3251,7 +3346,7 @@
       <c r="H48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I48" s="17" t="s">
+      <c r="I48" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3263,10 +3358,10 @@
         <v>146</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>46</v>
@@ -3277,7 +3372,7 @@
       <c r="H49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3289,10 +3384,10 @@
         <v>146</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>46</v>
@@ -3303,7 +3398,7 @@
       <c r="H50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="I50" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3315,10 +3410,10 @@
         <v>146</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>46</v>
@@ -3329,7 +3424,7 @@
       <c r="H51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I51" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3341,10 +3436,10 @@
         <v>146</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>46</v>
@@ -3355,7 +3450,7 @@
       <c r="H52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="I52" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3367,10 +3462,10 @@
         <v>146</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>46</v>
@@ -3381,7 +3476,7 @@
       <c r="H53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="17" t="s">
+      <c r="I53" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3393,10 +3488,10 @@
         <v>146</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>46</v>
@@ -3407,7 +3502,7 @@
       <c r="H54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="I54" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3419,10 +3514,10 @@
         <v>146</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>46</v>
@@ -3433,7 +3528,7 @@
       <c r="H55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="17" t="s">
+      <c r="I55" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3445,10 +3540,10 @@
         <v>146</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>46</v>
@@ -3459,7 +3554,7 @@
       <c r="H56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="I56" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3471,10 +3566,10 @@
         <v>146</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>46</v>
@@ -3485,7 +3580,7 @@
       <c r="H57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3497,10 +3592,10 @@
         <v>146</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>46</v>
@@ -3511,7 +3606,7 @@
       <c r="H58" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I58" s="17" t="s">
+      <c r="I58" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3523,10 +3618,10 @@
         <v>146</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>46</v>
@@ -3537,7 +3632,7 @@
       <c r="H59" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I59" s="17" t="s">
+      <c r="I59" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3549,10 +3644,10 @@
         <v>146</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>46</v>
@@ -3563,7 +3658,7 @@
       <c r="H60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I60" s="17" t="s">
+      <c r="I60" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3575,10 +3670,10 @@
         <v>146</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>46</v>
@@ -3589,7 +3684,7 @@
       <c r="H61" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="17" t="s">
+      <c r="I61" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3601,10 +3696,10 @@
         <v>146</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>46</v>
@@ -3615,7 +3710,7 @@
       <c r="H62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I62" s="17" t="s">
+      <c r="I62" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3627,10 +3722,10 @@
         <v>146</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>70</v>
@@ -3641,7 +3736,7 @@
       <c r="H63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I63" s="17" t="s">
+      <c r="I63" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3653,10 +3748,10 @@
         <v>146</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>70</v>
@@ -3667,7 +3762,7 @@
       <c r="H64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I64" s="17" t="s">
+      <c r="I64" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3679,10 +3774,10 @@
         <v>146</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>70</v>
@@ -3693,7 +3788,7 @@
       <c r="H65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="17" t="s">
+      <c r="I65" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3705,10 +3800,10 @@
         <v>146</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>70</v>
@@ -3719,7 +3814,7 @@
       <c r="H66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I66" s="17" t="s">
+      <c r="I66" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3731,10 +3826,10 @@
         <v>146</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>70</v>
@@ -3745,7 +3840,7 @@
       <c r="H67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I67" s="17" t="s">
+      <c r="I67" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3757,10 +3852,10 @@
         <v>146</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>70</v>
@@ -3771,7 +3866,7 @@
       <c r="H68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I68" s="17" t="s">
+      <c r="I68" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3783,10 +3878,10 @@
         <v>146</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>72</v>
@@ -3797,7 +3892,7 @@
       <c r="H69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I69" s="17" t="s">
+      <c r="I69" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3809,10 +3904,10 @@
         <v>146</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>72</v>
@@ -3823,7 +3918,7 @@
       <c r="H70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I70" s="17" t="s">
+      <c r="I70" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3835,10 +3930,10 @@
         <v>146</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>72</v>
@@ -3849,7 +3944,7 @@
       <c r="H71" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I71" s="17" t="s">
+      <c r="I71" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3861,10 +3956,10 @@
         <v>146</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>72</v>
@@ -3875,7 +3970,7 @@
       <c r="H72" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="17" t="s">
+      <c r="I72" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3887,10 +3982,10 @@
         <v>146</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>72</v>
@@ -3901,7 +3996,7 @@
       <c r="H73" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I73" s="17" t="s">
+      <c r="I73" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3913,10 +4008,10 @@
         <v>146</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>72</v>
@@ -3927,7 +4022,7 @@
       <c r="H74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I74" s="17" t="s">
+      <c r="I74" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3939,10 +4034,10 @@
         <v>146</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>72</v>
@@ -3953,7 +4048,7 @@
       <c r="H75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I75" s="17" t="s">
+      <c r="I75" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3965,10 +4060,10 @@
         <v>146</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>72</v>
@@ -3979,7 +4074,7 @@
       <c r="H76" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="I76" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3991,10 +4086,10 @@
         <v>146</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>72</v>
@@ -4005,7 +4100,7 @@
       <c r="H77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I77" s="17" t="s">
+      <c r="I77" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4017,10 +4112,10 @@
         <v>146</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>72</v>
@@ -4031,7 +4126,7 @@
       <c r="H78" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I78" s="17" t="s">
+      <c r="I78" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4043,10 +4138,10 @@
         <v>146</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>72</v>
@@ -4057,7 +4152,7 @@
       <c r="H79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I79" s="17" t="s">
+      <c r="I79" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4069,10 +4164,10 @@
         <v>146</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>72</v>
@@ -4083,7 +4178,7 @@
       <c r="H80" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I80" s="17" t="s">
+      <c r="I80" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4095,10 +4190,10 @@
         <v>146</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>96</v>
@@ -4109,7 +4204,7 @@
       <c r="H81" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I81" s="17" t="s">
+      <c r="I81" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4121,10 +4216,10 @@
         <v>146</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>96</v>
@@ -4135,7 +4230,7 @@
       <c r="H82" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I82" s="17" t="s">
+      <c r="I82" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4147,10 +4242,10 @@
         <v>152</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>26</v>
@@ -4161,7 +4256,7 @@
       <c r="H83" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I83" s="17" t="s">
+      <c r="I83" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4173,10 +4268,10 @@
         <v>154</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>31</v>
@@ -4187,7 +4282,7 @@
       <c r="H84" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I84" s="17" t="s">
+      <c r="I84" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4199,10 +4294,10 @@
         <v>154</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>405</v>
+        <v>318</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>31</v>
@@ -4213,34 +4308,34 @@
       <c r="H85" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I85" s="17" t="s">
+      <c r="I85" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="16"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="F86" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F86" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="16" t="s">
+      <c r="H86" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="17" t="s">
+      <c r="I86" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4266,7 +4361,7 @@
       <c r="H87" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I87" s="17" t="s">
+      <c r="I87" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4292,7 +4387,7 @@
       <c r="H88" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I88" s="17" t="s">
+      <c r="I88" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4318,7 +4413,7 @@
       <c r="H89" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I89" s="17" t="s">
+      <c r="I89" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4344,7 +4439,7 @@
       <c r="H90" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="17" t="s">
+      <c r="I90" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4370,7 +4465,7 @@
       <c r="H91" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I91" s="17" t="s">
+      <c r="I91" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4396,7 +4491,7 @@
       <c r="H92" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I92" s="17" t="s">
+      <c r="I92" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4422,7 +4517,7 @@
       <c r="H93" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I93" s="17" t="s">
+      <c r="I93" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4448,7 +4543,7 @@
       <c r="H94" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I94" s="17" t="s">
+      <c r="I94" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4474,7 +4569,7 @@
       <c r="H95" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I95" s="17" t="s">
+      <c r="I95" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4500,7 +4595,7 @@
       <c r="H96" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="I96" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4526,7 +4621,7 @@
       <c r="H97" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I97" s="17" t="s">
+      <c r="I97" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4552,7 +4647,7 @@
       <c r="H98" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I98" s="17" t="s">
+      <c r="I98" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4578,7 +4673,7 @@
       <c r="H99" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I99" s="17" t="s">
+      <c r="I99" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4604,7 +4699,7 @@
       <c r="H100" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I100" s="17" t="s">
+      <c r="I100" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4630,7 +4725,7 @@
       <c r="H101" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I101" s="17" t="s">
+      <c r="I101" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4656,7 +4751,7 @@
       <c r="H102" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I102" s="17" t="s">
+      <c r="I102" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4682,7 +4777,7 @@
       <c r="H103" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I103" s="17" t="s">
+      <c r="I103" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4708,7 +4803,7 @@
       <c r="H104" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I104" s="17" t="s">
+      <c r="I104" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4734,7 +4829,7 @@
       <c r="H105" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I105" s="17" t="s">
+      <c r="I105" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4760,7 +4855,7 @@
       <c r="H106" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I106" s="17" t="s">
+      <c r="I106" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4786,7 +4881,7 @@
       <c r="H107" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I107" s="17" t="s">
+      <c r="I107" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4812,7 +4907,7 @@
       <c r="H108" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I108" s="17" t="s">
+      <c r="I108" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4838,7 +4933,7 @@
       <c r="H109" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I109" s="17" t="s">
+      <c r="I109" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4861,7 +4956,7 @@
       <c r="H110" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I110" s="17" t="s">
+      <c r="I110" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4887,7 +4982,7 @@
       <c r="H111" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I111" s="17" t="s">
+      <c r="I111" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4913,7 +5008,7 @@
       <c r="H112" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I112" s="17" t="s">
+      <c r="I112" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4939,7 +5034,7 @@
       <c r="H113" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I113" s="17" t="s">
+      <c r="I113" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4962,7 +5057,7 @@
       <c r="H114" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I114" s="17" t="s">
+      <c r="I114" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4988,7 +5083,7 @@
       <c r="H115" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I115" s="17" t="s">
+      <c r="I115" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5011,7 +5106,7 @@
       <c r="H116" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I116" s="17" t="s">
+      <c r="I116" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5034,7 +5129,7 @@
       <c r="H117" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I117" s="17" t="s">
+      <c r="I117" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5057,7 +5152,7 @@
       <c r="H118" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I118" s="17" t="s">
+      <c r="I118" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5080,7 +5175,7 @@
       <c r="H119" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I119" s="17" t="s">
+      <c r="I119" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5103,7 +5198,7 @@
       <c r="H120" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I120" s="17" t="s">
+      <c r="I120" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5126,7 +5221,7 @@
       <c r="H121" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I121" s="17" t="s">
+      <c r="I121" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5149,7 +5244,7 @@
       <c r="H122" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I122" s="17" t="s">
+      <c r="I122" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5172,7 +5267,7 @@
       <c r="H123" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I123" s="17" t="s">
+      <c r="I123" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5195,7 +5290,7 @@
       <c r="H124" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I124" s="17" t="s">
+      <c r="I124" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5218,7 +5313,7 @@
       <c r="H125" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I125" s="17" t="s">
+      <c r="I125" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5241,7 +5336,7 @@
       <c r="H126" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I126" s="17" t="s">
+      <c r="I126" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5264,7 +5359,7 @@
       <c r="H127" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I127" s="17" t="s">
+      <c r="I127" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5287,7 +5382,7 @@
       <c r="H128" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I128" s="17" t="s">
+      <c r="I128" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5313,7 +5408,7 @@
       <c r="H129" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I129" s="17" t="s">
+      <c r="I129" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5339,7 +5434,7 @@
       <c r="H130" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I130" s="17" t="s">
+      <c r="I130" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5365,7 +5460,7 @@
       <c r="H131" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I131" s="17" t="s">
+      <c r="I131" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5391,7 +5486,7 @@
       <c r="H132" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I132" s="17" t="s">
+      <c r="I132" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5417,7 +5512,7 @@
       <c r="H133" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I133" s="17" t="s">
+      <c r="I133" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5443,7 +5538,7 @@
       <c r="H134" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I134" s="17" t="s">
+      <c r="I134" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5469,7 +5564,7 @@
       <c r="H135" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I135" s="17" t="s">
+      <c r="I135" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5495,7 +5590,7 @@
       <c r="H136" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I136" s="17" t="s">
+      <c r="I136" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5521,7 +5616,7 @@
       <c r="H137" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I137" s="17" t="s">
+      <c r="I137" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5547,7 +5642,7 @@
       <c r="H138" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I138" s="17" t="s">
+      <c r="I138" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5573,7 +5668,7 @@
       <c r="H139" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I139" s="17" t="s">
+      <c r="I139" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5599,7 +5694,7 @@
       <c r="H140" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I140" s="17" t="s">
+      <c r="I140" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5625,7 +5720,7 @@
       <c r="H141" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I141" s="17" t="s">
+      <c r="I141" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5651,7 +5746,7 @@
       <c r="H142" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I142" s="17" t="s">
+      <c r="I142" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5677,7 +5772,7 @@
       <c r="H143" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I143" s="17" t="s">
+      <c r="I143" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5703,7 +5798,7 @@
       <c r="H144" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I144" s="17" t="s">
+      <c r="I144" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5729,7 +5824,7 @@
       <c r="H145" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I145" s="17" t="s">
+      <c r="I145" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5740,7 +5835,7 @@
       <c r="B146" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -5755,7 +5850,7 @@
       <c r="H146" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I146" s="17" t="s">
+      <c r="I146" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5766,7 +5861,7 @@
       <c r="B147" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -5781,7 +5876,7 @@
       <c r="H147" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I147" s="17" t="s">
+      <c r="I147" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5789,7 +5884,7 @@
       <c r="A148" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -5804,7 +5899,7 @@
       <c r="H148" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I148" s="17" t="s">
+      <c r="I148" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5812,7 +5907,7 @@
       <c r="A149" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -5827,7 +5922,7 @@
       <c r="H149" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I149" s="17" t="s">
+      <c r="I149" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5835,7 +5930,7 @@
       <c r="A150" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -5850,7 +5945,7 @@
       <c r="H150" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I150" s="17" t="s">
+      <c r="I150" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5858,7 +5953,7 @@
       <c r="A151" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -5873,7 +5968,7 @@
       <c r="H151" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I151" s="17" t="s">
+      <c r="I151" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5881,7 +5976,7 @@
       <c r="A152" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -5896,7 +5991,7 @@
       <c r="H152" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I152" s="17" t="s">
+      <c r="I152" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5904,7 +5999,7 @@
       <c r="A153" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -5919,7 +6014,7 @@
       <c r="H153" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I153" s="17" t="s">
+      <c r="I153" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5927,7 +6022,7 @@
       <c r="A154" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -5942,7 +6037,7 @@
       <c r="H154" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I154" s="17" t="s">
+      <c r="I154" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5950,7 +6045,7 @@
       <c r="A155" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -5965,7 +6060,7 @@
       <c r="H155" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I155" s="17" t="s">
+      <c r="I155" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5973,7 +6068,7 @@
       <c r="A156" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -5988,7 +6083,7 @@
       <c r="H156" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I156" s="17" t="s">
+      <c r="I156" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5996,7 +6091,7 @@
       <c r="A157" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E157" s="2" t="s">
@@ -6011,7 +6106,7 @@
       <c r="H157" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I157" s="17" t="s">
+      <c r="I157" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6019,7 +6114,7 @@
       <c r="A158" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -6034,7 +6129,7 @@
       <c r="H158" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I158" s="17" t="s">
+      <c r="I158" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6042,7 +6137,7 @@
       <c r="A159" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -6057,7 +6152,7 @@
       <c r="H159" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I159" s="17" t="s">
+      <c r="I159" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6068,7 +6163,7 @@
       <c r="B160" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -6083,7 +6178,7 @@
       <c r="H160" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I160" s="17" t="s">
+      <c r="I160" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6094,7 +6189,7 @@
       <c r="B161" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -6109,7 +6204,7 @@
       <c r="H161" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I161" s="17" t="s">
+      <c r="I161" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6120,7 +6215,7 @@
       <c r="B162" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E162" s="2" t="s">
@@ -6135,7 +6230,7 @@
       <c r="H162" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I162" s="17" t="s">
+      <c r="I162" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6146,7 +6241,7 @@
       <c r="B163" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -6161,7 +6256,7 @@
       <c r="H163" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I163" s="17" t="s">
+      <c r="I163" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6172,7 +6267,7 @@
       <c r="B164" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -6187,7 +6282,7 @@
       <c r="H164" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I164" s="17" t="s">
+      <c r="I164" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6198,7 +6293,7 @@
       <c r="B165" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D165" s="18" t="s">
+      <c r="D165" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -6213,7 +6308,7 @@
       <c r="H165" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I165" s="17" t="s">
+      <c r="I165" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6224,7 +6319,7 @@
       <c r="B166" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E166" s="2" t="s">
@@ -6239,7 +6334,7 @@
       <c r="H166" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I166" s="17" t="s">
+      <c r="I166" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6250,7 +6345,7 @@
       <c r="B167" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E167" s="2" t="s">
@@ -6265,7 +6360,7 @@
       <c r="H167" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I167" s="17" t="s">
+      <c r="I167" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6276,7 +6371,7 @@
       <c r="B168" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -6291,7 +6386,7 @@
       <c r="H168" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I168" s="17" t="s">
+      <c r="I168" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6302,7 +6397,7 @@
       <c r="B169" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -6317,7 +6412,7 @@
       <c r="H169" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I169" s="17" t="s">
+      <c r="I169" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6328,7 +6423,7 @@
       <c r="B170" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D170" s="18" t="s">
+      <c r="D170" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -6343,7 +6438,7 @@
       <c r="H170" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I170" s="17" t="s">
+      <c r="I170" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6354,7 +6449,7 @@
       <c r="B171" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D171" s="18" t="s">
+      <c r="D171" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E171" s="2" t="s">
@@ -6369,7 +6464,7 @@
       <c r="H171" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I171" s="17" t="s">
+      <c r="I171" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6380,7 +6475,7 @@
       <c r="B172" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -6395,7 +6490,7 @@
       <c r="H172" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I172" s="17" t="s">
+      <c r="I172" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6406,7 +6501,7 @@
       <c r="B173" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D173" s="18" t="s">
+      <c r="D173" s="17" t="s">
         <v>320</v>
       </c>
       <c r="E173" s="2" t="s">
@@ -6421,7 +6516,7 @@
       <c r="H173" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I173" s="17" t="s">
+      <c r="I173" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6432,7 +6527,7 @@
       <c r="B174" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -6444,10 +6539,10 @@
       <c r="G174" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H174" s="19" t="s">
+      <c r="H174" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I174" s="17" t="s">
+      <c r="I174" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6455,7 +6550,7 @@
       <c r="A175" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E175" s="2" t="s">
@@ -6467,10 +6562,10 @@
       <c r="G175" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H175" s="19" t="s">
+      <c r="H175" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I175" s="17" t="s">
+      <c r="I175" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6478,7 +6573,7 @@
       <c r="A176" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D176" s="18" t="s">
+      <c r="D176" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E176" s="2" t="s">
@@ -6490,10 +6585,10 @@
       <c r="G176" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H176" s="19" t="s">
+      <c r="H176" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I176" s="17" t="s">
+      <c r="I176" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6501,7 +6596,7 @@
       <c r="A177" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E177" s="2" t="s">
@@ -6513,10 +6608,10 @@
       <c r="G177" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H177" s="19" t="s">
+      <c r="H177" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I177" s="17" t="s">
+      <c r="I177" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6524,7 +6619,7 @@
       <c r="A178" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E178" s="2" t="s">
@@ -6536,10 +6631,10 @@
       <c r="G178" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H178" s="19" t="s">
+      <c r="H178" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I178" s="17" t="s">
+      <c r="I178" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6547,7 +6642,7 @@
       <c r="A179" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D179" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -6559,10 +6654,10 @@
       <c r="G179" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H179" s="19" t="s">
+      <c r="H179" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I179" s="17" t="s">
+      <c r="I179" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6573,7 +6668,7 @@
       <c r="B180" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D180" s="18" t="s">
+      <c r="D180" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E180" s="2" t="s">
@@ -6585,10 +6680,10 @@
       <c r="G180" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H180" s="19" t="s">
+      <c r="H180" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I180" s="17" t="s">
+      <c r="I180" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6599,7 +6694,7 @@
       <c r="B181" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D181" s="18" t="s">
+      <c r="D181" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E181" s="2" t="s">
@@ -6611,10 +6706,10 @@
       <c r="G181" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H181" s="19" t="s">
+      <c r="H181" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I181" s="17" t="s">
+      <c r="I181" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6625,7 +6720,7 @@
       <c r="B182" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E182" s="2" t="s">
@@ -6637,10 +6732,10 @@
       <c r="G182" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H182" s="19" t="s">
+      <c r="H182" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I182" s="17" t="s">
+      <c r="I182" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6651,7 +6746,7 @@
       <c r="B183" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E183" s="2" t="s">
@@ -6663,10 +6758,10 @@
       <c r="G183" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H183" s="19" t="s">
+      <c r="H183" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I183" s="17" t="s">
+      <c r="I183" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6677,7 +6772,7 @@
       <c r="B184" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E184" s="2" t="s">
@@ -6689,10 +6784,10 @@
       <c r="G184" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H184" s="19" t="s">
+      <c r="H184" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I184" s="17" t="s">
+      <c r="I184" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6703,7 +6798,7 @@
       <c r="B185" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -6715,10 +6810,10 @@
       <c r="G185" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H185" s="19" t="s">
+      <c r="H185" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I185" s="17" t="s">
+      <c r="I185" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6729,7 +6824,7 @@
       <c r="B186" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="D186" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E186" s="2" t="s">
@@ -6744,7 +6839,7 @@
       <c r="H186" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I186" s="17" t="s">
+      <c r="I186" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6755,7 +6850,7 @@
       <c r="B187" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D187" s="18" t="s">
+      <c r="D187" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E187" s="2" t="s">
@@ -6770,7 +6865,7 @@
       <c r="H187" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I187" s="17" t="s">
+      <c r="I187" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6778,7 +6873,7 @@
       <c r="A188" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D188" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E188" s="2" t="s">
@@ -6793,7 +6888,7 @@
       <c r="H188" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I188" s="17" t="s">
+      <c r="I188" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6801,7 +6896,7 @@
       <c r="A189" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="D189" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E189" s="2" t="s">
@@ -6816,7 +6911,7 @@
       <c r="H189" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I189" s="17" t="s">
+      <c r="I189" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6824,7 +6919,7 @@
       <c r="A190" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D190" s="18" t="s">
+      <c r="D190" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -6839,7 +6934,7 @@
       <c r="H190" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I190" s="17" t="s">
+      <c r="I190" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6850,7 +6945,7 @@
       <c r="B191" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D191" s="18" t="s">
+      <c r="D191" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E191" s="2" t="s">
@@ -6865,7 +6960,7 @@
       <c r="H191" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I191" s="17" t="s">
+      <c r="I191" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6876,7 +6971,7 @@
       <c r="B192" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D192" s="18" t="s">
+      <c r="D192" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E192" s="2" t="s">
@@ -6891,7 +6986,7 @@
       <c r="H192" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I192" s="17" t="s">
+      <c r="I192" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6902,7 +6997,7 @@
       <c r="B193" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D193" s="18" t="s">
+      <c r="D193" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E193" s="2" t="s">
@@ -6917,7 +7012,7 @@
       <c r="H193" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I193" s="17" t="s">
+      <c r="I193" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6928,7 +7023,7 @@
       <c r="B194" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D194" s="18" t="s">
+      <c r="D194" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E194" s="2" t="s">
@@ -6943,7 +7038,7 @@
       <c r="H194" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I194" s="17" t="s">
+      <c r="I194" s="16" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6954,7 +7049,7 @@
       <c r="B195" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="17" t="s">
         <v>277</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -6969,7 +7064,7 @@
       <c r="H195" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I195" s="17" t="s">
+      <c r="I195" s="16" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6977,7 +7072,7 @@
       <c r="A196" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D196" s="18" t="s">
+      <c r="D196" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E196" s="2" t="s">
@@ -6992,7 +7087,7 @@
       <c r="H196" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I196" s="17" t="s">
+      <c r="I196" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7000,7 +7095,7 @@
       <c r="A197" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D197" s="18" t="s">
+      <c r="D197" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E197" s="2" t="s">
@@ -7015,7 +7110,7 @@
       <c r="H197" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I197" s="17" t="s">
+      <c r="I197" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7023,7 +7118,7 @@
       <c r="A198" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D198" s="18" t="s">
+      <c r="D198" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E198" s="2" t="s">
@@ -7038,7 +7133,7 @@
       <c r="H198" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I198" s="17" t="s">
+      <c r="I198" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7046,7 +7141,7 @@
       <c r="A199" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D199" s="18" t="s">
+      <c r="D199" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E199" s="2" t="s">
@@ -7061,7 +7156,7 @@
       <c r="H199" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I199" s="17" t="s">
+      <c r="I199" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7069,7 +7164,7 @@
       <c r="A200" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D200" s="18" t="s">
+      <c r="D200" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -7084,7 +7179,7 @@
       <c r="H200" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I200" s="17" t="s">
+      <c r="I200" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7092,7 +7187,7 @@
       <c r="A201" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D201" s="18" t="s">
+      <c r="D201" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E201" s="2" t="s">
@@ -7107,7 +7202,7 @@
       <c r="H201" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I201" s="17" t="s">
+      <c r="I201" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7115,7 +7210,7 @@
       <c r="A202" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D202" s="18" t="s">
+      <c r="D202" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E202" s="2" t="s">
@@ -7130,7 +7225,7 @@
       <c r="H202" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I202" s="17" t="s">
+      <c r="I202" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7138,7 +7233,7 @@
       <c r="A203" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D203" s="18" t="s">
+      <c r="D203" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -7153,7 +7248,7 @@
       <c r="H203" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I203" s="17" t="s">
+      <c r="I203" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7161,7 +7256,7 @@
       <c r="A204" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D204" s="18" t="s">
+      <c r="D204" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E204" s="2" t="s">
@@ -7176,7 +7271,7 @@
       <c r="H204" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I204" s="17" t="s">
+      <c r="I204" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7184,7 +7279,7 @@
       <c r="A205" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D205" s="18" t="s">
+      <c r="D205" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -7199,7 +7294,7 @@
       <c r="H205" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I205" s="17" t="s">
+      <c r="I205" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7207,7 +7302,7 @@
       <c r="A206" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D206" s="18" t="s">
+      <c r="D206" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E206" s="2" t="s">
@@ -7222,7 +7317,7 @@
       <c r="H206" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I206" s="17" t="s">
+      <c r="I206" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7230,7 +7325,7 @@
       <c r="A207" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D207" s="18" t="s">
+      <c r="D207" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E207" s="2" t="s">
@@ -7245,7 +7340,7 @@
       <c r="H207" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I207" s="17" t="s">
+      <c r="I207" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7253,7 +7348,7 @@
       <c r="A208" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D208" s="18" t="s">
+      <c r="D208" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E208" s="2" t="s">
@@ -7268,7 +7363,7 @@
       <c r="H208" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I208" s="17" t="s">
+      <c r="I208" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7276,7 +7371,7 @@
       <c r="A209" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D209" s="18" t="s">
+      <c r="D209" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E209" s="2" t="s">
@@ -7291,7 +7386,7 @@
       <c r="H209" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I209" s="17" t="s">
+      <c r="I209" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7302,7 +7397,7 @@
       <c r="B210" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D210" s="18" t="s">
+      <c r="D210" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E210" s="2" t="s">
@@ -7317,7 +7412,7 @@
       <c r="H210" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I210" s="17" t="s">
+      <c r="I210" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7328,7 +7423,7 @@
       <c r="B211" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D211" s="18" t="s">
+      <c r="D211" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -7343,7 +7438,7 @@
       <c r="H211" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I211" s="17" t="s">
+      <c r="I211" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7354,7 +7449,7 @@
       <c r="B212" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D212" s="18" t="s">
+      <c r="D212" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E212" s="2" t="s">
@@ -7369,7 +7464,7 @@
       <c r="H212" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I212" s="17" t="s">
+      <c r="I212" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7380,7 +7475,7 @@
       <c r="B213" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D213" s="18" t="s">
+      <c r="D213" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -7395,7 +7490,7 @@
       <c r="H213" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I213" s="17" t="s">
+      <c r="I213" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7406,7 +7501,7 @@
       <c r="B214" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D214" s="18" t="s">
+      <c r="D214" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E214" s="2" t="s">
@@ -7421,7 +7516,7 @@
       <c r="H214" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I214" s="17" t="s">
+      <c r="I214" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7432,7 +7527,7 @@
       <c r="B215" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D215" s="18" t="s">
+      <c r="D215" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E215" s="2" t="s">
@@ -7447,7 +7542,7 @@
       <c r="H215" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I215" s="17" t="s">
+      <c r="I215" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7458,7 +7553,7 @@
       <c r="B216" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D216" s="18" t="s">
+      <c r="D216" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -7473,7 +7568,7 @@
       <c r="H216" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I216" s="17" t="s">
+      <c r="I216" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7484,7 +7579,7 @@
       <c r="B217" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D217" s="18" t="s">
+      <c r="D217" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E217" s="2" t="s">
@@ -7499,7 +7594,7 @@
       <c r="H217" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I217" s="17" t="s">
+      <c r="I217" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7510,7 +7605,7 @@
       <c r="B218" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D218" s="18" t="s">
+      <c r="D218" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E218" s="2" t="s">
@@ -7525,7 +7620,7 @@
       <c r="H218" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I218" s="17" t="s">
+      <c r="I218" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7536,7 +7631,7 @@
       <c r="B219" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D219" s="18" t="s">
+      <c r="D219" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E219" s="2" t="s">
@@ -7551,7 +7646,7 @@
       <c r="H219" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I219" s="17" t="s">
+      <c r="I219" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7562,7 +7657,7 @@
       <c r="B220" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D220" s="18" t="s">
+      <c r="D220" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E220" s="2" t="s">
@@ -7577,7 +7672,7 @@
       <c r="H220" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I220" s="17" t="s">
+      <c r="I220" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7588,7 +7683,7 @@
       <c r="B221" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D221" s="18" t="s">
+      <c r="D221" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -7603,7 +7698,7 @@
       <c r="H221" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I221" s="17" t="s">
+      <c r="I221" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7614,7 +7709,7 @@
       <c r="B222" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D222" s="18" t="s">
+      <c r="D222" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E222" s="2" t="s">
@@ -7629,7 +7724,7 @@
       <c r="H222" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I222" s="17" t="s">
+      <c r="I222" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7640,7 +7735,7 @@
       <c r="B223" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D223" s="18" t="s">
+      <c r="D223" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E223" s="2" t="s">
@@ -7655,7 +7750,7 @@
       <c r="H223" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I223" s="17" t="s">
+      <c r="I223" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7666,7 +7761,7 @@
       <c r="B224" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D224" s="18" t="s">
+      <c r="D224" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E224" s="2" t="s">
@@ -7681,7 +7776,7 @@
       <c r="H224" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I224" s="17" t="s">
+      <c r="I224" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7692,7 +7787,7 @@
       <c r="B225" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D225" s="18" t="s">
+      <c r="D225" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E225" s="2" t="s">
@@ -7707,7 +7802,7 @@
       <c r="H225" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I225" s="17" t="s">
+      <c r="I225" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7718,7 +7813,7 @@
       <c r="B226" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D226" s="18" t="s">
+      <c r="D226" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -7733,7 +7828,7 @@
       <c r="H226" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I226" s="17" t="s">
+      <c r="I226" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7744,7 +7839,7 @@
       <c r="B227" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D227" s="18" t="s">
+      <c r="D227" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E227" s="2" t="s">
@@ -7759,7 +7854,7 @@
       <c r="H227" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I227" s="17" t="s">
+      <c r="I227" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7770,7 +7865,7 @@
       <c r="B228" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D228" s="18" t="s">
+      <c r="D228" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E228" s="2" t="s">
@@ -7785,7 +7880,7 @@
       <c r="H228" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I228" s="17" t="s">
+      <c r="I228" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7796,7 +7891,7 @@
       <c r="B229" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D229" s="18" t="s">
+      <c r="D229" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E229" s="2" t="s">
@@ -7811,7 +7906,7 @@
       <c r="H229" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I229" s="17" t="s">
+      <c r="I229" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7822,7 +7917,7 @@
       <c r="B230" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D230" s="18" t="s">
+      <c r="D230" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E230" s="2" t="s">
@@ -7837,7 +7932,7 @@
       <c r="H230" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I230" s="17" t="s">
+      <c r="I230" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7848,7 +7943,7 @@
       <c r="B231" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D231" s="18" t="s">
+      <c r="D231" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -7863,7 +7958,7 @@
       <c r="H231" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I231" s="17" t="s">
+      <c r="I231" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7874,7 +7969,7 @@
       <c r="B232" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D232" s="18" t="s">
+      <c r="D232" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E232" s="2" t="s">
@@ -7889,7 +7984,7 @@
       <c r="H232" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I232" s="17" t="s">
+      <c r="I232" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7900,7 +7995,7 @@
       <c r="B233" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D233" s="18" t="s">
+      <c r="D233" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E233" s="2" t="s">
@@ -7915,7 +8010,7 @@
       <c r="H233" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I233" s="17" t="s">
+      <c r="I233" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7926,7 +8021,7 @@
       <c r="B234" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D234" s="18" t="s">
+      <c r="D234" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E234" s="2" t="s">
@@ -7941,7 +8036,7 @@
       <c r="H234" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I234" s="17" t="s">
+      <c r="I234" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7952,7 +8047,7 @@
       <c r="B235" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D235" s="18" t="s">
+      <c r="D235" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E235" s="2" t="s">
@@ -7967,7 +8062,7 @@
       <c r="H235" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I235" s="17" t="s">
+      <c r="I235" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -7978,7 +8073,7 @@
       <c r="B236" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D236" s="18" t="s">
+      <c r="D236" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E236" s="2" t="s">
@@ -7993,7 +8088,7 @@
       <c r="H236" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I236" s="17" t="s">
+      <c r="I236" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -8004,7 +8099,7 @@
       <c r="B237" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D237" s="18" t="s">
+      <c r="D237" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -8019,7 +8114,7 @@
       <c r="H237" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I237" s="17" t="s">
+      <c r="I237" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8030,7 +8125,7 @@
       <c r="B238" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D238" s="18" t="s">
+      <c r="D238" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E238" s="2" t="s">
@@ -8045,7 +8140,7 @@
       <c r="H238" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I238" s="17" t="s">
+      <c r="I238" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8056,7 +8151,7 @@
       <c r="B239" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D239" s="18" t="s">
+      <c r="D239" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E239" s="2" t="s">
@@ -8071,7 +8166,7 @@
       <c r="H239" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I239" s="17" t="s">
+      <c r="I239" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8082,7 +8177,7 @@
       <c r="B240" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D240" s="18" t="s">
+      <c r="D240" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E240" s="2" t="s">
@@ -8097,7 +8192,7 @@
       <c r="H240" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I240" s="17" t="s">
+      <c r="I240" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8108,7 +8203,7 @@
       <c r="B241" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D241" s="18" t="s">
+      <c r="D241" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E241" s="2" t="s">
@@ -8123,7 +8218,7 @@
       <c r="H241" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I241" s="17" t="s">
+      <c r="I241" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8134,7 +8229,7 @@
       <c r="B242" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D242" s="18" t="s">
+      <c r="D242" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -8149,7 +8244,7 @@
       <c r="H242" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I242" s="17" t="s">
+      <c r="I242" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8160,7 +8255,7 @@
       <c r="B243" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D243" s="18" t="s">
+      <c r="D243" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E243" s="2" t="s">
@@ -8175,7 +8270,7 @@
       <c r="H243" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I243" s="17" t="s">
+      <c r="I243" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8186,7 +8281,7 @@
       <c r="B244" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D244" s="18" t="s">
+      <c r="D244" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E244" s="2" t="s">
@@ -8201,7 +8296,7 @@
       <c r="H244" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I244" s="17" t="s">
+      <c r="I244" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8209,7 +8304,7 @@
       <c r="A245" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D245" s="18" t="s">
+      <c r="D245" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E245" s="2" t="s">
@@ -8224,7 +8319,7 @@
       <c r="H245" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I245" s="17" t="s">
+      <c r="I245" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8235,7 +8330,7 @@
       <c r="B246" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D246" s="18" t="s">
+      <c r="D246" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E246" s="2" t="s">
@@ -8250,7 +8345,7 @@
       <c r="H246" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I246" s="17" t="s">
+      <c r="I246" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8261,7 +8356,7 @@
       <c r="B247" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D247" s="18" t="s">
+      <c r="D247" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -8276,7 +8371,7 @@
       <c r="H247" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I247" s="17" t="s">
+      <c r="I247" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8287,7 +8382,7 @@
       <c r="B248" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D248" s="18" t="s">
+      <c r="D248" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E248" s="2" t="s">
@@ -8302,7 +8397,7 @@
       <c r="H248" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I248" s="17" t="s">
+      <c r="I248" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8313,7 +8408,7 @@
       <c r="B249" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D249" s="18" t="s">
+      <c r="D249" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E249" s="2" t="s">
@@ -8328,7 +8423,7 @@
       <c r="H249" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I249" s="17" t="s">
+      <c r="I249" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8339,7 +8434,7 @@
       <c r="B250" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D250" s="18" t="s">
+      <c r="D250" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E250" s="2" t="s">
@@ -8354,7 +8449,7 @@
       <c r="H250" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I250" s="17" t="s">
+      <c r="I250" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8365,7 +8460,7 @@
       <c r="B251" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D251" s="18" t="s">
+      <c r="D251" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E251" s="2" t="s">
@@ -8380,7 +8475,7 @@
       <c r="H251" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I251" s="17" t="s">
+      <c r="I251" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8391,7 +8486,7 @@
       <c r="B252" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D252" s="18" t="s">
+      <c r="D252" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -8406,7 +8501,7 @@
       <c r="H252" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I252" s="17" t="s">
+      <c r="I252" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8417,7 +8512,7 @@
       <c r="B253" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D253" s="18" t="s">
+      <c r="D253" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E253" s="2" t="s">
@@ -8432,7 +8527,7 @@
       <c r="H253" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I253" s="17" t="s">
+      <c r="I253" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8443,7 +8538,7 @@
       <c r="B254" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D254" s="18" t="s">
+      <c r="D254" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E254" s="2" t="s">
@@ -8458,7 +8553,7 @@
       <c r="H254" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I254" s="17" t="s">
+      <c r="I254" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8466,7 +8561,7 @@
       <c r="A255" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D255" s="18" t="s">
+      <c r="D255" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E255" s="2" t="s">
@@ -8481,7 +8576,7 @@
       <c r="H255" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I255" s="17" t="s">
+      <c r="I255" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8489,7 +8584,7 @@
       <c r="A256" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D256" s="18" t="s">
+      <c r="D256" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E256" s="2" t="s">
@@ -8504,7 +8599,7 @@
       <c r="H256" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I256" s="17" t="s">
+      <c r="I256" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8512,7 +8607,7 @@
       <c r="A257" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -8527,7 +8622,7 @@
       <c r="H257" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I257" s="17" t="s">
+      <c r="I257" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8535,7 +8630,7 @@
       <c r="A258" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D258" s="18" t="s">
+      <c r="D258" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E258" s="2" t="s">
@@ -8550,7 +8645,7 @@
       <c r="H258" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I258" s="17" t="s">
+      <c r="I258" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8558,7 +8653,7 @@
       <c r="A259" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="D259" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E259" s="2" t="s">
@@ -8573,7 +8668,7 @@
       <c r="H259" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I259" s="17" t="s">
+      <c r="I259" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8581,7 +8676,7 @@
       <c r="A260" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="D260" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E260" s="2" t="s">
@@ -8596,7 +8691,7 @@
       <c r="H260" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I260" s="17" t="s">
+      <c r="I260" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8604,7 +8699,7 @@
       <c r="A261" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="D261" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E261" s="2" t="s">
@@ -8619,7 +8714,7 @@
       <c r="H261" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I261" s="17" t="s">
+      <c r="I261" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8627,7 +8722,7 @@
       <c r="A262" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D262" s="18" t="s">
+      <c r="D262" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E262" s="2" t="s">
@@ -8642,7 +8737,7 @@
       <c r="H262" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I262" s="17" t="s">
+      <c r="I262" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8650,7 +8745,7 @@
       <c r="A263" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D263" s="18" t="s">
+      <c r="D263" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -8665,7 +8760,7 @@
       <c r="H263" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I263" s="17" t="s">
+      <c r="I263" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8676,7 +8771,7 @@
       <c r="B264" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="D264" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E264" s="2" t="s">
@@ -8691,7 +8786,7 @@
       <c r="H264" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I264" s="17" t="s">
+      <c r="I264" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8702,7 +8797,7 @@
       <c r="B265" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D265" s="18" t="s">
+      <c r="D265" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E265" s="2" t="s">
@@ -8717,7 +8812,7 @@
       <c r="H265" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I265" s="17" t="s">
+      <c r="I265" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8728,7 +8823,7 @@
       <c r="B266" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D266" s="18" t="s">
+      <c r="D266" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E266" s="2" t="s">
@@ -8743,7 +8838,7 @@
       <c r="H266" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I266" s="17" t="s">
+      <c r="I266" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8754,7 +8849,7 @@
       <c r="B267" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D267" s="18" t="s">
+      <c r="D267" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E267" s="2" t="s">
@@ -8769,7 +8864,7 @@
       <c r="H267" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I267" s="17" t="s">
+      <c r="I267" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8780,7 +8875,7 @@
       <c r="B268" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D268" s="18" t="s">
+      <c r="D268" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -8795,7 +8890,7 @@
       <c r="H268" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I268" s="17" t="s">
+      <c r="I268" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8806,7 +8901,7 @@
       <c r="B269" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D269" s="18" t="s">
+      <c r="D269" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E269" s="2" t="s">
@@ -8821,7 +8916,7 @@
       <c r="H269" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I269" s="17" t="s">
+      <c r="I269" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8832,7 +8927,7 @@
       <c r="B270" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D270" s="18" t="s">
+      <c r="D270" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E270" s="2" t="s">
@@ -8847,7 +8942,7 @@
       <c r="H270" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I270" s="17" t="s">
+      <c r="I270" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8858,7 +8953,7 @@
       <c r="B271" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D271" s="18" t="s">
+      <c r="D271" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E271" s="2" t="s">
@@ -8873,7 +8968,7 @@
       <c r="H271" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I271" s="17" t="s">
+      <c r="I271" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8884,7 +8979,7 @@
       <c r="B272" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="18" t="s">
+      <c r="D272" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E272" s="2" t="s">
@@ -8899,7 +8994,7 @@
       <c r="H272" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I272" s="17" t="s">
+      <c r="I272" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8910,7 +9005,7 @@
       <c r="B273" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D273" s="18" t="s">
+      <c r="D273" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -8925,7 +9020,7 @@
       <c r="H273" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I273" s="17" t="s">
+      <c r="I273" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8936,7 +9031,7 @@
       <c r="B274" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D274" s="18" t="s">
+      <c r="D274" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E274" s="2" t="s">
@@ -8951,7 +9046,7 @@
       <c r="H274" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I274" s="17" t="s">
+      <c r="I274" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8962,7 +9057,7 @@
       <c r="B275" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D275" s="18" t="s">
+      <c r="D275" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E275" s="2" t="s">
@@ -8977,7 +9072,7 @@
       <c r="H275" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I275" s="17" t="s">
+      <c r="I275" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8988,7 +9083,7 @@
       <c r="B276" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D276" s="18" t="s">
+      <c r="D276" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E276" s="2" t="s">
@@ -9003,7 +9098,7 @@
       <c r="H276" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I276" s="17" t="s">
+      <c r="I276" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9014,7 +9109,7 @@
       <c r="B277" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D277" s="18" t="s">
+      <c r="D277" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E277" s="2" t="s">
@@ -9029,13 +9124,655 @@
       <c r="H277" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I277" s="17" t="s">
+      <c r="I277" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="278" spans="1:9">
-      <c r="D278" s="18" t="s">
+      <c r="A278" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D278" s="17" t="s">
         <v>402</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I278" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D279" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I279" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I280" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I281" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I282" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I283" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I284" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I285" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I286" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D287" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I287" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D288" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I288" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I289" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D290" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I290" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I291" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D292" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I292" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D293" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I293" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I294" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D295" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I295" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D296" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I296" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D297" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I297" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D298" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I298" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D299" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I299" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I300" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D301" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I301" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D302" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I302" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -9055,18 +9792,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F34"/>
+  <dimension ref="A3:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="6" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" customWidth="1"/>
+    <col min="5" max="6" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -9084,7 +9822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="57.6">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -9094,7 +9832,9 @@
       <c r="C4" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="19" t="s">
+        <v>432</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
@@ -9123,11 +9863,13 @@
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>431</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
@@ -9135,9 +9877,13 @@
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
@@ -9145,9 +9891,13 @@
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
@@ -9155,9 +9905,13 @@
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
@@ -9165,9 +9919,13 @@
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
@@ -9175,9 +9933,13 @@
       <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="12"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
@@ -9185,9 +9947,13 @@
       <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
@@ -9195,9 +9961,13 @@
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="12"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
@@ -9205,59 +9975,59 @@
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+    <row r="18" spans="1:6">
+      <c r="B18" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
@@ -9265,7 +10035,7 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>12</v>
@@ -9278,12 +10048,12 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11" t="s">
@@ -9291,12 +10061,12 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11" t="s">
@@ -9304,12 +10074,12 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
@@ -9317,12 +10087,12 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="11" t="s">
@@ -9330,12 +10100,12 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
@@ -9343,12 +10113,12 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
@@ -9356,30 +10126,38 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
+      <c r="C31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="13"/>
+      <c r="C32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
@@ -9388,7 +10166,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="13"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="11" t="s">
@@ -9397,10 +10175,28 @@
       <c r="B34" s="5"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9414,13 +10210,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:2" ht="15.75" thickBot="1">
+    <row r="1" spans="2:2" ht="15" thickBot="1"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>

--- a/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
+++ b/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="23136" windowHeight="4272" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23130" windowHeight="4275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Easy Selector Jump Start" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="443">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1339,6 +1339,15 @@
   </si>
   <si>
     <t>_17701008</t>
+  </si>
+  <si>
+    <t>_17701008A</t>
+  </si>
+  <si>
+    <t>_17701011A</t>
+  </si>
+  <si>
+    <t>_17701015A</t>
   </si>
 </sst>
 </file>
@@ -2089,14 +2098,14 @@
       <selection pane="bottomRight" activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
+    <col min="6" max="8" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -9795,16 +9804,16 @@
   <dimension ref="A3:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="11" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" customWidth="1"/>
-    <col min="5" max="6" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
+    <col min="5" max="6" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -9822,7 +9831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57.6">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -9920,7 +9929,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>321</v>
@@ -9976,7 +9985,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>346</v>
@@ -9986,6 +9995,9 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B17" s="7" t="s">
         <v>433</v>
       </c>
@@ -9997,8 +10009,11 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>402</v>
@@ -10210,13 +10225,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1"/>
-    <row r="2" spans="2:2" ht="15" thickBot="1">
+    <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:2" ht="15.75" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>

--- a/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
+++ b/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="447">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1348,6 +1348,18 @@
   </si>
   <si>
     <t>_17701015A</t>
+  </si>
+  <si>
+    <t>Value Packs Contains Complete Load Center (Box, Interior and Cover) with Selected Branch Circuit Breaker</t>
+  </si>
+  <si>
+    <t>Main Lugs (Accepts Only QO Plug-On Circuit Breakers)</t>
+  </si>
+  <si>
+    <t>Main Circuit Breaker (Accepts Only QO Plug-On Circuit Breakers.)</t>
+  </si>
+  <si>
+    <t>QO Plug-on Neutral CAFI Load Center (accepts QO Circuit Breakers only)</t>
   </si>
 </sst>
 </file>
@@ -2092,10 +2104,10 @@
   <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D293" sqref="D293"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9804,7 +9816,7 @@
   <dimension ref="A3:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9878,7 +9890,9 @@
       <c r="C8" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
@@ -9892,11 +9906,13 @@
       <c r="C9" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>445</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
@@ -9906,7 +9922,9 @@
       <c r="C10" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
@@ -9966,7 +9984,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
@@ -9976,7 +9994,9 @@
       <c r="C15" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>443</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>

--- a/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
+++ b/cns/(cns.generator)/D01A Load Centers - Digest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="23136" windowHeight="4272" activeTab="1"/>
+    <workbookView xWindow="1524" yWindow="84" windowWidth="23136" windowHeight="4272"/>
   </bookViews>
   <sheets>
     <sheet name="Easy Selector Jump Start" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Help" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Easy Selector Jump Start'!$A$1:$H$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Easy Selector Jump Start'!$A$1:$H$284</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="455">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1357,6 +1357,33 @@
   </si>
   <si>
     <t>Convertible Main Load Centers (Accepts only HOM Plug-On Circuit Breakers)</t>
+  </si>
+  <si>
+    <t>QO148L125GF</t>
+  </si>
+  <si>
+    <t>QO148L125GS</t>
+  </si>
+  <si>
+    <t>QONQ42MS300;MH62;NC62NQVF</t>
+  </si>
+  <si>
+    <t>PK27GTA;PK15GTA6</t>
+  </si>
+  <si>
+    <t>QONQ42MS300;MH62;NC62NQVS</t>
+  </si>
+  <si>
+    <t>300A</t>
+  </si>
+  <si>
+    <t>QONQ42MS400;MH62;NC62NQVF</t>
+  </si>
+  <si>
+    <t>QONQ42MS400;MH62;NC62NQVS</t>
+  </si>
+  <si>
+    <t>400A</t>
   </si>
 </sst>
 </file>
@@ -2098,13 +2125,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D138" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3188,22 +3215,22 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>448</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>151</v>
+        <v>449</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>34</v>
+        <v>451</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>33</v>
@@ -3214,22 +3241,22 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>151</v>
+        <v>449</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>34</v>
+        <v>451</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>27</v>
@@ -3240,22 +3267,22 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>151</v>
+        <v>449</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>34</v>
+        <v>454</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>33</v>
@@ -3266,22 +3293,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>453</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>151</v>
+        <v>449</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>34</v>
+        <v>454</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>27</v>
@@ -3292,7 +3319,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>151</v>
@@ -3307,7 +3334,7 @@
         <v>34</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>33</v>
@@ -3318,7 +3345,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>151</v>
@@ -3333,7 +3360,7 @@
         <v>34</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>27</v>
@@ -3344,10 +3371,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>435</v>
@@ -3356,10 +3383,10 @@
         <v>142</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>33</v>
@@ -3370,10 +3397,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>435</v>
@@ -3382,10 +3409,10 @@
         <v>142</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>27</v>
@@ -3396,10 +3423,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>435</v>
@@ -3408,10 +3435,10 @@
         <v>142</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>33</v>
@@ -3422,10 +3449,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>435</v>
@@ -3434,10 +3461,10 @@
         <v>142</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>27</v>
@@ -3448,10 +3475,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>446</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>435</v>
@@ -3463,7 +3490,7 @@
         <v>44</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>33</v>
@@ -3474,10 +3501,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>447</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>435</v>
@@ -3489,7 +3516,7 @@
         <v>44</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>27</v>
@@ -3500,7 +3527,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>144</v>
@@ -3515,7 +3542,7 @@
         <v>44</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>33</v>
@@ -3526,7 +3553,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>144</v>
@@ -3541,7 +3568,7 @@
         <v>44</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>27</v>
@@ -3552,7 +3579,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>144</v>
@@ -3567,7 +3594,7 @@
         <v>44</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>33</v>
@@ -3578,7 +3605,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>144</v>
@@ -3593,7 +3620,7 @@
         <v>44</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>27</v>
@@ -3604,7 +3631,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>144</v>
@@ -3619,7 +3646,7 @@
         <v>44</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>33</v>
@@ -3630,7 +3657,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>144</v>
@@ -3645,7 +3672,7 @@
         <v>44</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>27</v>
@@ -3656,7 +3683,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>144</v>
@@ -3671,7 +3698,7 @@
         <v>44</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>33</v>
@@ -3682,7 +3709,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>144</v>
@@ -3697,7 +3724,7 @@
         <v>44</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>27</v>
@@ -3708,7 +3735,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>144</v>
@@ -3723,7 +3750,7 @@
         <v>44</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>33</v>
@@ -3734,7 +3761,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>144</v>
@@ -3746,13 +3773,13 @@
         <v>142</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>153</v>
@@ -3760,7 +3787,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>144</v>
@@ -3772,13 +3799,13 @@
         <v>142</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>153</v>
@@ -3786,7 +3813,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>144</v>
@@ -3798,13 +3825,13 @@
         <v>142</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I65" s="16" t="s">
         <v>153</v>
@@ -3812,7 +3839,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>144</v>
@@ -3824,13 +3851,13 @@
         <v>142</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>153</v>
@@ -3838,7 +3865,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>144</v>
@@ -3850,13 +3877,13 @@
         <v>142</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>153</v>
@@ -3864,7 +3891,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>144</v>
@@ -3876,13 +3903,13 @@
         <v>142</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>153</v>
@@ -3890,7 +3917,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>144</v>
@@ -3902,10 +3929,10 @@
         <v>142</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>33</v>
@@ -3916,7 +3943,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>144</v>
@@ -3928,10 +3955,10 @@
         <v>142</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>27</v>
@@ -3942,7 +3969,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>144</v>
@@ -3954,10 +3981,10 @@
         <v>142</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>33</v>
@@ -3968,7 +3995,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>144</v>
@@ -3980,10 +4007,10 @@
         <v>142</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>27</v>
@@ -3994,7 +4021,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>144</v>
@@ -4006,10 +4033,10 @@
         <v>142</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>33</v>
@@ -4020,7 +4047,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>144</v>
@@ -4032,10 +4059,10 @@
         <v>142</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>27</v>
@@ -4046,7 +4073,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>144</v>
@@ -4061,7 +4088,7 @@
         <v>70</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>33</v>
@@ -4072,7 +4099,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>144</v>
@@ -4087,7 +4114,7 @@
         <v>70</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>27</v>
@@ -4098,7 +4125,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>144</v>
@@ -4113,7 +4140,7 @@
         <v>70</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>33</v>
@@ -4124,7 +4151,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>144</v>
@@ -4139,7 +4166,7 @@
         <v>70</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>27</v>
@@ -4150,7 +4177,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>144</v>
@@ -4165,7 +4192,7 @@
         <v>70</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>33</v>
@@ -4176,7 +4203,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>144</v>
@@ -4191,7 +4218,7 @@
         <v>70</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>27</v>
@@ -4202,7 +4229,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>144</v>
@@ -4214,10 +4241,10 @@
         <v>142</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>33</v>
@@ -4228,7 +4255,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>144</v>
@@ -4240,10 +4267,10 @@
         <v>142</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>27</v>
@@ -4254,10 +4281,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>435</v>
@@ -4266,13 +4293,13 @@
         <v>142</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I83" s="16" t="s">
         <v>153</v>
@@ -4280,10 +4307,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>435</v>
@@ -4292,13 +4319,13 @@
         <v>142</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I84" s="16" t="s">
         <v>153</v>
@@ -4306,10 +4333,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>435</v>
@@ -4318,39 +4345,38 @@
         <v>142</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I85" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="15"/>
+      <c r="A86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D86" s="8" t="s">
         <v>435</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F86" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" s="15" t="s">
+      <c r="F86" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I86" s="16" t="s">
@@ -4359,22 +4385,22 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E87" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E87" s="14" t="s">
         <v>142</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>33</v>
@@ -4385,22 +4411,22 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E88" s="14" t="s">
         <v>142</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>27</v>
@@ -4411,25 +4437,25 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E89" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E89" s="14" t="s">
         <v>142</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I89" s="16" t="s">
         <v>153</v>
@@ -4437,25 +4463,25 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E90" s="14" t="s">
         <v>142</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>153</v>
@@ -4463,50 +4489,51 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E91" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>142</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="A92" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="15"/>
       <c r="D92" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H92" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I92" s="16" t="s">
@@ -4515,10 +4542,10 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>170</v>
@@ -4527,10 +4554,10 @@
         <v>142</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>33</v>
@@ -4541,10 +4568,10 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>170</v>
@@ -4553,10 +4580,10 @@
         <v>142</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>27</v>
@@ -4567,22 +4594,22 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>33</v>
@@ -4593,22 +4620,22 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>27</v>
@@ -4619,22 +4646,22 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>33</v>
@@ -4645,22 +4672,22 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>27</v>
@@ -4671,7 +4698,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>157</v>
@@ -4680,13 +4707,13 @@
         <v>170</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>33</v>
@@ -4697,7 +4724,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>157</v>
@@ -4706,13 +4733,13 @@
         <v>170</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>27</v>
@@ -4723,10 +4750,10 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>170</v>
@@ -4735,10 +4762,10 @@
         <v>143</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>33</v>
@@ -4749,10 +4776,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>170</v>
@@ -4761,13 +4788,13 @@
         <v>143</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I102" s="16" t="s">
         <v>153</v>
@@ -4775,42 +4802,42 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>70</v>
@@ -4819,44 +4846,44 @@
         <v>76</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>170</v>
@@ -4865,24 +4892,24 @@
         <v>143</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="I106" s="16" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>170</v>
@@ -4891,24 +4918,24 @@
         <v>143</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>170</v>
@@ -4920,33 +4947,33 @@
         <v>70</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>218</v>
@@ -4957,157 +4984,163 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I112" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I113" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>316</v>
@@ -5116,10 +5149,10 @@
         <v>142</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>218</v>
@@ -5130,7 +5163,10 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>316</v>
@@ -5139,10 +5175,10 @@
         <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>218</v>
@@ -5153,7 +5189,10 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>316</v>
@@ -5162,10 +5201,10 @@
         <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>218</v>
@@ -5176,7 +5215,10 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>316</v>
@@ -5185,10 +5227,10 @@
         <v>142</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>218</v>
@@ -5199,7 +5241,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>316</v>
@@ -5208,10 +5250,10 @@
         <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>218</v>
@@ -5222,7 +5264,10 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>316</v>
@@ -5231,10 +5276,10 @@
         <v>142</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>218</v>
@@ -5245,7 +5290,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>316</v>
@@ -5254,10 +5299,10 @@
         <v>142</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>218</v>
@@ -5268,7 +5313,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>316</v>
@@ -5277,10 +5322,10 @@
         <v>142</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>218</v>
@@ -5291,7 +5336,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>316</v>
@@ -5300,10 +5345,10 @@
         <v>142</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>218</v>
@@ -5314,7 +5359,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>316</v>
@@ -5323,10 +5368,10 @@
         <v>142</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>218</v>
@@ -5337,7 +5382,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>316</v>
@@ -5346,10 +5391,10 @@
         <v>142</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>218</v>
@@ -5360,7 +5405,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>316</v>
@@ -5369,10 +5414,10 @@
         <v>142</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>218</v>
@@ -5383,7 +5428,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>316</v>
@@ -5392,10 +5437,10 @@
         <v>142</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>218</v>
@@ -5406,22 +5451,19 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>218</v>
@@ -5432,22 +5474,19 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>218</v>
@@ -5458,22 +5497,19 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>218</v>
@@ -5484,22 +5520,19 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>218</v>
@@ -5510,22 +5543,19 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>218</v>
@@ -5536,22 +5566,19 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>218</v>
@@ -5562,10 +5589,10 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>316</v>
@@ -5574,10 +5601,10 @@
         <v>143</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>218</v>
@@ -5588,10 +5615,10 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>316</v>
@@ -5600,10 +5627,10 @@
         <v>143</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>218</v>
@@ -5614,10 +5641,10 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>316</v>
@@ -5626,10 +5653,10 @@
         <v>143</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>218</v>
@@ -5640,10 +5667,10 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>316</v>
@@ -5652,10 +5679,10 @@
         <v>143</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>218</v>
@@ -5666,10 +5693,10 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>316</v>
@@ -5678,10 +5705,10 @@
         <v>143</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>218</v>
@@ -5692,10 +5719,10 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>316</v>
@@ -5704,10 +5731,10 @@
         <v>143</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>218</v>
@@ -5718,10 +5745,10 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>316</v>
@@ -5733,7 +5760,7 @@
         <v>70</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>218</v>
@@ -5744,10 +5771,10 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>316</v>
@@ -5756,10 +5783,10 @@
         <v>143</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>218</v>
@@ -5770,10 +5797,10 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>316</v>
@@ -5782,10 +5809,10 @@
         <v>143</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>218</v>
@@ -5796,10 +5823,10 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>316</v>
@@ -5808,10 +5835,10 @@
         <v>143</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>218</v>
@@ -5822,10 +5849,10 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>316</v>
@@ -5837,7 +5864,7 @@
         <v>70</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>218</v>
@@ -5848,151 +5875,166 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2" t="s">
-        <v>395</v>
+        <v>211</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>437</v>
+        <v>157</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I146" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>396</v>
+        <v>212</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>437</v>
+        <v>155</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>437</v>
+        <v>213</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>437</v>
+        <v>214</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>437</v>
+        <v>215</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>437</v>
+        <v>216</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
-        <v>239</v>
+        <v>395</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>437</v>
@@ -6001,10 +6043,10 @@
         <v>142</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>33</v>
@@ -6015,7 +6057,10 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2" t="s">
-        <v>240</v>
+        <v>396</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>437</v>
@@ -6024,10 +6069,10 @@
         <v>142</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>27</v>
@@ -6038,7 +6083,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>437</v>
@@ -6047,10 +6092,10 @@
         <v>142</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>33</v>
@@ -6061,7 +6106,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D155" s="17" t="s">
         <v>437</v>
@@ -6070,10 +6115,10 @@
         <v>142</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>27</v>
@@ -6084,7 +6129,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>437</v>
@@ -6093,10 +6138,10 @@
         <v>142</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>33</v>
@@ -6107,7 +6152,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>437</v>
@@ -6116,10 +6161,10 @@
         <v>142</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>27</v>
@@ -6130,7 +6175,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>437</v>
@@ -6139,10 +6184,10 @@
         <v>142</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>33</v>
@@ -6153,7 +6198,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>437</v>
@@ -6162,10 +6207,10 @@
         <v>142</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>27</v>
@@ -6176,22 +6221,19 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="D160" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>33</v>
@@ -6202,22 +6244,19 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>27</v>
@@ -6228,19 +6267,16 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="D162" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>76</v>
@@ -6254,19 +6290,16 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>76</v>
@@ -6280,22 +6313,19 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="D164" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>33</v>
@@ -6306,22 +6336,19 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>27</v>
@@ -6332,10 +6359,10 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>437</v>
@@ -6344,10 +6371,10 @@
         <v>143</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>33</v>
@@ -6358,10 +6385,10 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>437</v>
@@ -6370,10 +6397,10 @@
         <v>143</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>27</v>
@@ -6384,7 +6411,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>166</v>
@@ -6396,7 +6423,7 @@
         <v>143</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>76</v>
@@ -6410,7 +6437,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>166</v>
@@ -6422,7 +6449,7 @@
         <v>143</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>76</v>
@@ -6436,10 +6463,10 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>437</v>
@@ -6448,10 +6475,10 @@
         <v>143</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>33</v>
@@ -6462,10 +6489,10 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>437</v>
@@ -6474,10 +6501,10 @@
         <v>143</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>27</v>
@@ -6488,7 +6515,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>157</v>
@@ -6500,7 +6527,7 @@
         <v>143</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>95</v>
@@ -6514,7 +6541,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>157</v>
@@ -6526,7 +6553,7 @@
         <v>143</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>95</v>
@@ -6540,131 +6567,146 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D174" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H174" s="18" t="s">
-        <v>321</v>
+        <v>76</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I174" s="16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H175" s="18" t="s">
-        <v>321</v>
+        <v>76</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I175" s="16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D176" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H176" s="18" t="s">
-        <v>321</v>
+        <v>95</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I176" s="16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H177" s="18" t="s">
-        <v>321</v>
+        <v>95</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I177" s="16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H178" s="18" t="s">
-        <v>321</v>
+        <v>95</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I178" s="16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>94</v>
@@ -6672,31 +6714,31 @@
       <c r="G179" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H179" s="18" t="s">
-        <v>321</v>
+      <c r="H179" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I179" s="16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D180" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="H180" s="18" t="s">
         <v>321</v>
@@ -6707,22 +6749,19 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H181" s="18" t="s">
         <v>321</v>
@@ -6733,22 +6772,19 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="D182" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H182" s="18" t="s">
         <v>321</v>
@@ -6759,22 +6795,19 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>166</v>
+        <v>266</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="H183" s="18" t="s">
         <v>321</v>
@@ -6785,22 +6818,19 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H184" s="18" t="s">
         <v>321</v>
@@ -6811,16 +6841,13 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>437</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>94</v>
@@ -6837,74 +6864,77 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>275</v>
+        <v>437</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>218</v>
+        <v>250</v>
+      </c>
+      <c r="H186" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="I186" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>275</v>
+        <v>437</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>218</v>
+        <v>76</v>
+      </c>
+      <c r="H187" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="I187" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>275</v>
+        <v>437</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>218</v>
+        <v>76</v>
+      </c>
+      <c r="H188" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="I188" s="16" t="s">
         <v>171</v>
@@ -6912,22 +6942,25 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>275</v>
+        <v>437</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>218</v>
+        <v>76</v>
+      </c>
+      <c r="H189" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="I189" s="16" t="s">
         <v>171</v>
@@ -6935,22 +6968,25 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>275</v>
+        <v>437</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>218</v>
+        <v>95</v>
+      </c>
+      <c r="H190" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="I190" s="16" t="s">
         <v>171</v>
@@ -6958,36 +6994,36 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>275</v>
+        <v>437</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
+      </c>
+      <c r="H191" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="I191" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D192" s="17" t="s">
         <v>275</v>
@@ -6996,13 +7032,13 @@
         <v>277</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I192" s="16" t="s">
         <v>153</v>
@@ -7010,10 +7046,10 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>275</v>
@@ -7022,13 +7058,13 @@
         <v>277</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I193" s="16" t="s">
         <v>153</v>
@@ -7036,10 +7072,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>275</v>
@@ -7048,24 +7081,21 @@
         <v>277</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I194" s="16" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>275</v>
@@ -7074,59 +7104,62 @@
         <v>277</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I195" s="16" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I196" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I197" s="16" t="s">
         <v>153</v>
@@ -7134,19 +7167,22 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="2" t="s">
-        <v>389</v>
+        <v>287</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>33</v>
@@ -7157,22 +7193,25 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="2" t="s">
-        <v>390</v>
+        <v>288</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I199" s="16" t="s">
         <v>153</v>
@@ -7180,53 +7219,59 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I200" s="16" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="2" t="s">
-        <v>391</v>
+        <v>292</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="2" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
       <c r="D202" s="17" t="s">
         <v>294</v>
@@ -7235,13 +7280,13 @@
         <v>142</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I202" s="16" t="s">
         <v>153</v>
@@ -7249,7 +7294,7 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="2" t="s">
-        <v>393</v>
+        <v>295</v>
       </c>
       <c r="D203" s="17" t="s">
         <v>294</v>
@@ -7258,13 +7303,13 @@
         <v>142</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="I203" s="16" t="s">
         <v>153</v>
@@ -7272,22 +7317,22 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D204" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I204" s="16" t="s">
         <v>153</v>
@@ -7295,22 +7340,22 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="2" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="D205" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="I205" s="16" t="s">
         <v>153</v>
@@ -7318,7 +7363,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D206" s="17" t="s">
         <v>294</v>
@@ -7327,10 +7372,10 @@
         <v>142</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>218</v>
@@ -7341,7 +7386,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="2" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="D207" s="17" t="s">
         <v>294</v>
@@ -7350,13 +7395,13 @@
         <v>142</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I207" s="16" t="s">
         <v>153</v>
@@ -7364,7 +7409,7 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="2" t="s">
-        <v>302</v>
+        <v>392</v>
       </c>
       <c r="D208" s="17" t="s">
         <v>294</v>
@@ -7373,13 +7418,13 @@
         <v>142</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I208" s="16" t="s">
         <v>153</v>
@@ -7387,7 +7432,7 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="2" t="s">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="D209" s="17" t="s">
         <v>294</v>
@@ -7396,13 +7441,13 @@
         <v>142</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="I209" s="16" t="s">
         <v>153</v>
@@ -7410,25 +7455,22 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>201</v>
+        <v>394</v>
       </c>
       <c r="D210" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="I210" s="16" t="s">
         <v>153</v>
@@ -7436,22 +7478,19 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="D211" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>218</v>
@@ -7462,22 +7501,19 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="D212" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>218</v>
@@ -7488,19 +7524,16 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c r="D213" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>59</v>
@@ -7514,22 +7547,19 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="D214" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>218</v>
@@ -7540,22 +7570,19 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="D215" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>218</v>
@@ -7566,10 +7593,10 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D216" s="17" t="s">
         <v>294</v>
@@ -7578,10 +7605,10 @@
         <v>143</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>218</v>
@@ -7592,10 +7619,10 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D217" s="17" t="s">
         <v>294</v>
@@ -7604,10 +7631,10 @@
         <v>143</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>114</v>
+        <v>306</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>218</v>
@@ -7618,10 +7645,10 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="D218" s="17" t="s">
         <v>294</v>
@@ -7630,10 +7657,10 @@
         <v>143</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>218</v>
@@ -7644,10 +7671,10 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D219" s="17" t="s">
         <v>294</v>
@@ -7656,10 +7683,10 @@
         <v>143</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>218</v>
@@ -7670,10 +7697,10 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D220" s="17" t="s">
         <v>294</v>
@@ -7682,10 +7709,10 @@
         <v>143</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H220" s="2" t="s">
         <v>218</v>
@@ -7696,22 +7723,22 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>218</v>
@@ -7722,22 +7749,22 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>218</v>
@@ -7748,22 +7775,22 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>218</v>
@@ -7774,22 +7801,22 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>218</v>
@@ -7800,13 +7827,13 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>143</v>
@@ -7826,13 +7853,13 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>143</v>
@@ -7841,7 +7868,7 @@
         <v>70</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>218</v>
@@ -7852,22 +7879,22 @@
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="D227" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>218</v>
@@ -7878,22 +7905,22 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>328</v>
+        <v>155</v>
       </c>
       <c r="D228" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>218</v>
@@ -7904,10 +7931,10 @@
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D229" s="17" t="s">
         <v>317</v>
@@ -7916,10 +7943,10 @@
         <v>143</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>218</v>
@@ -7930,10 +7957,10 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D230" s="17" t="s">
         <v>317</v>
@@ -7942,10 +7969,10 @@
         <v>143</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>332</v>
+        <v>66</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>218</v>
@@ -7956,7 +7983,7 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>157</v>
@@ -7968,10 +7995,10 @@
         <v>143</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>218</v>
@@ -7982,10 +8009,10 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D232" s="17" t="s">
         <v>317</v>
@@ -7997,7 +8024,7 @@
         <v>70</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>218</v>
@@ -8008,22 +8035,22 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="D233" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>218</v>
@@ -8034,22 +8061,22 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D234" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H234" s="2" t="s">
         <v>218</v>
@@ -8060,10 +8087,10 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>317</v>
@@ -8072,21 +8099,21 @@
         <v>143</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I235" s="16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>157</v>
@@ -8098,39 +8125,39 @@
         <v>143</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I236" s="16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I237" s="16" t="s">
         <v>153</v>
@@ -8138,25 +8165,25 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I238" s="16" t="s">
         <v>153</v>
@@ -8164,25 +8191,25 @@
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I239" s="16" t="s">
         <v>153</v>
@@ -8190,13 +8217,13 @@
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>143</v>
@@ -8205,10 +8232,10 @@
         <v>70</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I240" s="16" t="s">
         <v>153</v>
@@ -8216,77 +8243,77 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="2" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I241" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="2" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I242" s="16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="2" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I243" s="16" t="s">
         <v>153</v>
@@ -8294,25 +8321,25 @@
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="2" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I244" s="16" t="s">
         <v>153</v>
@@ -8320,22 +8347,25 @@
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I245" s="16" t="s">
         <v>153</v>
@@ -8343,25 +8373,25 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I246" s="16" t="s">
         <v>153</v>
@@ -8369,10 +8399,10 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="2" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>346</v>
@@ -8381,13 +8411,13 @@
         <v>142</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I247" s="16" t="s">
         <v>153</v>
@@ -8395,10 +8425,10 @@
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="2" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D248" s="17" t="s">
         <v>346</v>
@@ -8407,13 +8437,13 @@
         <v>142</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I248" s="16" t="s">
         <v>153</v>
@@ -8421,10 +8451,10 @@
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="2" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>346</v>
@@ -8433,13 +8463,13 @@
         <v>142</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="I249" s="16" t="s">
         <v>153</v>
@@ -8447,10 +8477,10 @@
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="2" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D250" s="17" t="s">
         <v>346</v>
@@ -8459,13 +8489,13 @@
         <v>142</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>329</v>
+        <v>35</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="I250" s="16" t="s">
         <v>153</v>
@@ -8473,10 +8503,7 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>157</v>
+        <v>347</v>
       </c>
       <c r="D251" s="17" t="s">
         <v>346</v>
@@ -8485,10 +8512,10 @@
         <v>142</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>329</v>
+        <v>186</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>218</v>
@@ -8499,10 +8526,10 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="D252" s="17" t="s">
         <v>346</v>
@@ -8511,10 +8538,10 @@
         <v>142</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>218</v>
@@ -8525,10 +8552,10 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="D253" s="17" t="s">
         <v>346</v>
@@ -8537,10 +8564,10 @@
         <v>142</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>218</v>
@@ -8551,10 +8578,10 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="D254" s="17" t="s">
         <v>346</v>
@@ -8563,10 +8590,10 @@
         <v>142</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>218</v>
@@ -8577,7 +8604,10 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D255" s="17" t="s">
         <v>346</v>
@@ -8589,7 +8619,7 @@
         <v>44</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>218</v>
@@ -8600,7 +8630,10 @@
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>346</v>
@@ -8612,7 +8645,7 @@
         <v>44</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>218</v>
@@ -8623,7 +8656,10 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D257" s="17" t="s">
         <v>346</v>
@@ -8632,10 +8668,10 @@
         <v>142</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>114</v>
+        <v>329</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>218</v>
@@ -8646,7 +8682,10 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D258" s="17" t="s">
         <v>346</v>
@@ -8655,10 +8694,10 @@
         <v>142</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>218</v>
@@ -8669,7 +8708,10 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D259" s="17" t="s">
         <v>346</v>
@@ -8681,7 +8723,7 @@
         <v>94</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>218</v>
@@ -8692,7 +8734,10 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="D260" s="17" t="s">
         <v>346</v>
@@ -8704,7 +8749,7 @@
         <v>94</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>218</v>
@@ -8715,7 +8760,7 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D261" s="17" t="s">
         <v>346</v>
@@ -8724,10 +8769,10 @@
         <v>142</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>218</v>
@@ -8738,7 +8783,7 @@
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D262" s="17" t="s">
         <v>346</v>
@@ -8747,10 +8792,10 @@
         <v>142</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>218</v>
@@ -8761,7 +8806,7 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D263" s="17" t="s">
         <v>346</v>
@@ -8770,10 +8815,10 @@
         <v>142</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>357</v>
+        <v>114</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>218</v>
@@ -8784,22 +8829,19 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="D264" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>218</v>
@@ -8810,22 +8852,19 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>155</v>
+        <v>367</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>218</v>
@@ -8836,22 +8875,19 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>166</v>
+        <v>366</v>
       </c>
       <c r="D266" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>114</v>
+        <v>351</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>218</v>
@@ -8862,22 +8898,19 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>157</v>
+        <v>368</v>
       </c>
       <c r="D267" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>332</v>
+        <v>114</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>218</v>
@@ -8888,22 +8921,19 @@
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>157</v>
+        <v>369</v>
       </c>
       <c r="D268" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>218</v>
@@ -8914,22 +8944,19 @@
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>157</v>
+        <v>370</v>
       </c>
       <c r="D269" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>218</v>
@@ -8940,10 +8967,10 @@
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>346</v>
@@ -8952,10 +8979,10 @@
         <v>143</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>218</v>
@@ -8966,10 +8993,10 @@
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D271" s="17" t="s">
         <v>346</v>
@@ -8978,10 +9005,10 @@
         <v>143</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>218</v>
@@ -8992,7 +9019,7 @@
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>166</v>
@@ -9004,7 +9031,7 @@
         <v>143</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>114</v>
@@ -9018,7 +9045,7 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>157</v>
@@ -9030,10 +9057,10 @@
         <v>143</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>218</v>
@@ -9044,10 +9071,10 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="D274" s="17" t="s">
         <v>346</v>
@@ -9056,10 +9083,10 @@
         <v>143</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>218</v>
@@ -9070,10 +9097,10 @@
     </row>
     <row r="275" spans="1:9">
       <c r="A275" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="D275" s="17" t="s">
         <v>346</v>
@@ -9082,10 +9109,10 @@
         <v>143</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>218</v>
@@ -9096,10 +9123,10 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>360</v>
+        <v>157</v>
       </c>
       <c r="D276" s="17" t="s">
         <v>346</v>
@@ -9108,10 +9135,10 @@
         <v>143</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>218</v>
@@ -9122,10 +9149,10 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="D277" s="17" t="s">
         <v>346</v>
@@ -9134,10 +9161,10 @@
         <v>143</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>218</v>
@@ -9148,22 +9175,22 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>218</v>
@@ -9174,22 +9201,22 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="2" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="H279" s="2" t="s">
         <v>218</v>
@@ -9200,19 +9227,22 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="2" t="s">
-        <v>402</v>
+        <v>381</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>186</v>
+        <v>338</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>218</v>
@@ -9223,22 +9253,22 @@
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>201</v>
+        <v>337</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>218</v>
@@ -9249,22 +9279,22 @@
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="2" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>48</v>
+        <v>359</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>218</v>
@@ -9275,22 +9305,22 @@
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="2" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>114</v>
+        <v>357</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>218</v>
@@ -9301,10 +9331,10 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>397</v>
@@ -9313,10 +9343,10 @@
         <v>142</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>218</v>
@@ -9327,10 +9357,10 @@
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D285" s="17" t="s">
         <v>397</v>
@@ -9339,10 +9369,10 @@
         <v>142</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H285" s="2" t="s">
         <v>218</v>
@@ -9353,10 +9383,7 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>155</v>
+        <v>402</v>
       </c>
       <c r="D286" s="17" t="s">
         <v>397</v>
@@ -9365,10 +9392,10 @@
         <v>142</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>218</v>
@@ -9379,10 +9406,10 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D287" s="17" t="s">
         <v>397</v>
@@ -9391,10 +9418,10 @@
         <v>142</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="H287" s="2" t="s">
         <v>218</v>
@@ -9405,10 +9432,10 @@
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D288" s="17" t="s">
         <v>397</v>
@@ -9417,10 +9444,10 @@
         <v>142</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="H288" s="2" t="s">
         <v>218</v>
@@ -9431,10 +9458,10 @@
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>337</v>
+        <v>166</v>
       </c>
       <c r="D289" s="17" t="s">
         <v>397</v>
@@ -9443,10 +9470,10 @@
         <v>142</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>338</v>
+        <v>114</v>
       </c>
       <c r="H289" s="2" t="s">
         <v>218</v>
@@ -9457,10 +9484,10 @@
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="D290" s="17" t="s">
         <v>397</v>
@@ -9469,10 +9496,10 @@
         <v>142</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>218</v>
@@ -9483,7 +9510,7 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>201</v>
@@ -9492,13 +9519,13 @@
         <v>397</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>218</v>
@@ -9509,7 +9536,7 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>155</v>
@@ -9518,13 +9545,13 @@
         <v>397</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>218</v>
@@ -9535,7 +9562,7 @@
     </row>
     <row r="293" spans="1:9">
       <c r="A293" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>166</v>
@@ -9544,10 +9571,10 @@
         <v>397</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>114</v>
@@ -9561,22 +9588,22 @@
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="D294" s="17" t="s">
         <v>397</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>218</v>
@@ -9587,22 +9614,22 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="D295" s="17" t="s">
         <v>397</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H295" s="2" t="s">
         <v>218</v>
@@ -9613,22 +9640,22 @@
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="D296" s="17" t="s">
         <v>397</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="H296" s="2" t="s">
         <v>218</v>
@@ -9639,7 +9666,7 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>201</v>
@@ -9651,10 +9678,10 @@
         <v>143</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>218</v>
@@ -9665,10 +9692,10 @@
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D298" s="17" t="s">
         <v>397</v>
@@ -9677,10 +9704,10 @@
         <v>143</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="H298" s="2" t="s">
         <v>218</v>
@@ -9691,10 +9718,10 @@
     </row>
     <row r="299" spans="1:9">
       <c r="A299" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D299" s="17" t="s">
         <v>397</v>
@@ -9703,10 +9730,10 @@
         <v>143</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>329</v>
+        <v>114</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>218</v>
@@ -9717,10 +9744,10 @@
     </row>
     <row r="300" spans="1:9">
       <c r="A300" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="D300" s="17" t="s">
         <v>397</v>
@@ -9729,10 +9756,10 @@
         <v>143</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="H300" s="2" t="s">
         <v>218</v>
@@ -9743,10 +9770,10 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D301" s="17" t="s">
         <v>397</v>
@@ -9755,10 +9782,10 @@
         <v>143</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>218</v>
@@ -9769,10 +9796,10 @@
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D302" s="17" t="s">
         <v>397</v>
@@ -9781,20 +9808,176 @@
         <v>143</v>
       </c>
       <c r="F302" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I302" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F303" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G302" s="2" t="s">
+      <c r="G303" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I303" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I304" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I305" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D306" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I306" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H302" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I302" s="16" t="s">
+      <c r="H307" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I307" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D308" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I308" s="16" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H278">
+  <autoFilter ref="A1:H284">
     <filterColumn colId="4"/>
   </autoFilter>
   <sortState ref="A2:I91">
@@ -9812,7 +9995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
